--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,13 +436,225 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>intervalo</t>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x_m</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>x_i</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>x_s</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f_m</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f_i</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f_s</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.79012465825581</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0809814780312877</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.341470984807897</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.88912054784146</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.79012465825581</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0052009550989279</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0809814780312877</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0989958895856418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.89513366396402</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.88912054784146</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0002952804141364</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0052009550989279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0060131161225605</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.89547394644226</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.89513366396402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.66428266504814e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0002952804141364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000340282478241</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.89549312219208</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.89547394644226</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.37650685539637e-07</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.66428266504814e-05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.91757498191336e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.89549420253555</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.89549312219208</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.28256689502626e-08</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.37650685539637e-07</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.08034347001684e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.89549426340025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.89549420253555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.97610580624053e-09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.28256689502626e-08</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.0907025731743183</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.086470594190979e-08</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,25 +477,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.79012465825581</v>
+        <v>1.75</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0809814780312877</v>
+        <v>-0.9375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.341470984807897</v>
+        <v>-3</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>1.000001</v>
@@ -503,158 +503,236 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.88912054784146</v>
+        <v>1.94736842105263</v>
       </c>
       <c r="C3" t="n">
-        <v>1.79012465825581</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0052009550989279</v>
+        <v>-0.20775623268698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809814780312877</v>
+        <v>-0.9375</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0989958895856418</v>
+        <v>0.101351351351351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.89513366396402</v>
+        <v>1.98936170212766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.88912054784146</v>
+        <v>1.94736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002952804141364</v>
+        <v>-0.0424400181077416</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0052009550989279</v>
+        <v>-0.20775623268698</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0060131161225605</v>
+        <v>0.0211089220377145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.89547394644226</v>
+        <v>1.99786780383795</v>
       </c>
       <c r="C5" t="n">
-        <v>1.89513366396402</v>
+        <v>1.98936170212766</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.66428266504814e-05</v>
+        <v>-0.008524238387713899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002952804141364</v>
+        <v>-0.0424400181077416</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000340282478241</v>
+        <v>0.0042575898635301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.89549312219208</v>
+        <v>1.99957337883959</v>
       </c>
       <c r="C6" t="n">
-        <v>1.89547394644226</v>
+        <v>1.99786780383795</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>9.37650685539637e-07</v>
+        <v>-0.0017063026360237</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66428266504814e-05</v>
+        <v>-0.008524238387713899</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.91757498191336e-05</v>
+        <v>0.0008529694482265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.89549420253555</v>
+        <v>1.99991466848707</v>
       </c>
       <c r="C7" t="n">
-        <v>1.89549312219208</v>
+        <v>1.99957337883959</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>5.28256689502626e-08</v>
+        <v>-0.0003413187702436</v>
       </c>
       <c r="F7" t="n">
-        <v>9.37650685539637e-07</v>
+        <v>-0.0017063026360237</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.08034347001684e-06</v>
+        <v>0.0001706521047421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.89549426340025</v>
+        <v>1.99998293340615</v>
       </c>
       <c r="C8" t="n">
-        <v>1.89549420253555</v>
+        <v>1.99991466848707</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2.97610580624053e-09</v>
+        <v>-6.826608412824339e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>5.28256689502626e-08</v>
+        <v>-0.0003413187702436</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0907025731743183</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>6.086470594190979e-08</v>
+        <v>3.4132750804102e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.99999658666958</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.99998293340615</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.36533100323355e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-6.826608412824339e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.82664336504653e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.99999931733345</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.99999658666958</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.73066573486247e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.36533100323355e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.36533240132136e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.99999986346667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.99999931733345</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.46133295920015e-07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.73066573486247e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.73066629408884e-07</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,184 +477,2602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0080347099469709</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.79012465825581</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0809814780312877</v>
+        <v>-5.05810455915729</v>
       </c>
       <c r="F2" t="n">
-        <v>0.341470984807897</v>
+        <v>-5</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000001</v>
+        <v>1.000005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.88912054784146</v>
+        <v>0.0161495776577089</v>
       </c>
       <c r="C3" t="n">
-        <v>1.79012465825581</v>
+        <v>0.0080347099469709</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0052009550989279</v>
+        <v>-5.10483351611299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809814780312877</v>
+        <v>-5.05810455915729</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0989958895856418</v>
+        <v>0.0081148677107379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.89513366396402</v>
+        <v>0.0243259779516105</v>
       </c>
       <c r="C4" t="n">
-        <v>1.88912054784146</v>
+        <v>0.0161495776577089</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002952804141364</v>
+        <v>-5.14724967321098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0052009550989279</v>
+        <v>-5.10483351611299</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0060131161225605</v>
+        <v>0.0081764002939016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.89547394644226</v>
+        <v>0.0325566784227782</v>
       </c>
       <c r="C5" t="n">
-        <v>1.89513366396402</v>
+        <v>0.0243259779516105</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.66428266504814e-05</v>
+        <v>-5.18689961171222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002952804141364</v>
+        <v>-5.14724967321098</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000340282478241</v>
+        <v>0.0082307004711676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.89549312219208</v>
+        <v>0.0408369555416318</v>
       </c>
       <c r="C6" t="n">
-        <v>1.89547394644226</v>
+        <v>0.0325566784227782</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>9.37650685539637e-07</v>
+        <v>-5.22452667395339</v>
       </c>
       <c r="F6" t="n">
-        <v>1.66428266504814e-05</v>
+        <v>-5.18689961171222</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.91757498191336e-05</v>
+        <v>0.0082802771188536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.89549420253555</v>
+        <v>0.0491632965734809</v>
       </c>
       <c r="C7" t="n">
-        <v>1.89549312219208</v>
+        <v>0.0408369555416318</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.28256689502626e-08</v>
+        <v>-5.26057176236755</v>
       </c>
       <c r="F7" t="n">
-        <v>9.37650685539637e-07</v>
+        <v>-5.22452667395339</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.08034347001684e-06</v>
+        <v>0.008326341031849101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.89549426340025</v>
+        <v>0.057532909582424</v>
       </c>
       <c r="C8" t="n">
-        <v>1.89549420253555</v>
+        <v>0.0491632965734809</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>2.97610580624053e-09</v>
+        <v>-5.29532732678578</v>
       </c>
       <c r="F8" t="n">
-        <v>5.28256689502626e-08</v>
+        <v>-5.26057176236755</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0907025731743183</v>
+        <v>3106.5</v>
       </c>
       <c r="H8" t="n">
-        <v>6.086470594190979e-08</v>
+        <v>0.008369613008943001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0659434823523596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.057532909582424</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5.32900151787357</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5.29532732678578</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.008410572769935599</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0743930451846981</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0659434823523596</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5.36174988696004</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.32900151787357</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0084495628323384</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0828798851075031</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0743930451846981</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.39369290993162</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-5.36174988696004</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.008486839922805</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0914024885503532</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0828798851075031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5.42492648391309</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-5.39369290993162</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0085226034428501</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0999595010965461</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0914024885503532</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5.45552860698625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-5.42492648391309</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0085570125461928</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.108549698119421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0999595010965461</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-5.48556383528176</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-5.45552860698625</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.008590197022874901</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.117171962692206</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.108549698119421</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-5.51508637278557</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-5.48556383528176</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0086222645727846</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.125825268547673</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.117171962692206</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-5.54414228174243</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5.51508637278557</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.008653305855466999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.134508666655719</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.125825268547673</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-5.57277110620029</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-5.54414228174243</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0086833981080461</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.143221274462217</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.134508666655719</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-5.60100709155916</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-5.57277110620029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.008712607806497699</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.151962267129834</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.143221274462217</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5.62888011852269</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5.60100709155916</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.008740992667616901</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.160730870314211</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.151962267129834</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-5.65641643046074</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-5.62888011852269</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.008768603184377499</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.169526354137602</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.160730870314211</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.68363920830538</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-5.65641643046074</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0087954838233908</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.178348028110316</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.169526354137602</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-5.71056903091567</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.68363920830538</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0088216739727137</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.187195236812232</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.178348028110316</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.73722424804649</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.71056903091567</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.008847208701916401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.196067356190968</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.187195236812232</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-5.76362128568434</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-5.73722424804649</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0088721193787359</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.204963790365594</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.196067356190968</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.78977489837883</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-5.76362128568434</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0088964341746261</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.213883968848739</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.204963790365594</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-5.81569837955756</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.78977489837883</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0089201784831444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.22282734411791</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.213883968848739</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-5.84140373818677</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-5.81569837955756</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0089433752691711</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.23179338948058</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.22282734411791</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-5.8669018482193</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-5.84140373818677</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0089660453626702</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.24078159718814</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.23179338948058</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-5.89220257584682</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-5.8669018482193</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0089882077075603</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.249791476762076</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.24078159718814</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-5.91731488850322</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-5.89220257584682</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009009879573935901</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.258822553502201</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.249791476762076</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.9422469487534</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-5.91731488850322</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.009031076740124599</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.267874367151938</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.258822553502201</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-5.96700619557766</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-5.9422469487534</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.009051813649737299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.276946470699783</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.267874367151938</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-5.99159941507849</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-5.96700619557766</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.009072103547844599</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.286038429299401</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.276946470699783</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-6.01603280225813</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-5.99159941507849</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.009091958599617599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.295149819293555</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.286038429299401</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-6.04031201521686</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-6.01603280225813</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.009111389994154199</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.304280227329272</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.295149819293555</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-6.06444222288486</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-6.04031201521686</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.009130408035716801</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.313429249553493</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.304280227329272</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-6.08842814721044</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-6.06444222288486</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.009149022224221801</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.322596490879998</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.313429249553493</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-6.11227410057415</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-6.08842814721044</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0091672413265047</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.331781564319635</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.322596490879998</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-6.13598401907414</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-6.11227410057415</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.009185073439636799</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.340984090366994</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.331781564319635</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-6.15956149222631</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-6.13598401907414</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0092025260473588</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.35020369643753</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.340984090366994</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-6.18300978953978</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-6.15956149222631</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.009219606070535799</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.359440016349925</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.35020369643753</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-6.20633188435888</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-6.18300978953978</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.009236319912394901</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.368692689849121</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.359440016349925</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-6.22953047530626</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-6.20633188435888</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.009252673499196401</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.377961362166015</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.368692689849121</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-6.25260800561353</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-6.22953047530626</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0092686723168935</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.387245683610273</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.377961362166015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-6.27556668058637</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-6.25260800561353</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0092843214442577</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.396545309193153</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.387245683610273</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-6.29840848341713</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6.27556668058637</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.009299625582879899</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.405859898277555</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.396545309193153</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-6.32113518952974</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-6.29840848341713</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0093145890844021</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.415189114252844</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.405859898277555</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-6.3437483796176</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-6.32113518952974</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.009329215975289001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.424532624232248</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.415189114252844</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-6.36624945151456</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-6.3437483796176</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.009343509979404399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.433890098770879</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.424532624232248</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-6.38863963102184</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-6.36624945151456</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.009357474538630299</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.443261211602609</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.433890098770879</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-6.41091998179826</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-6.38863963102184</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.009371112831730199</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.452645639394247</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.443261211602609</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-6.43309141440872</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-6.41091998179826</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0093844277916384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.46204306151558</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.452645639394247</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-6.45515469461442</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-6.43309141440872</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0093974221213328</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.471453159824012</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.46204306151558</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-6.47711045097865</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-6.45515469461442</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.009410098308431701</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.48087561846265</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.471453159824012</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-6.49895918185383</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-6.47711045097865</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.009422458638637599</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.490310123670788</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.48087561846265</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-6.52070126180793</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-6.49895918185383</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0094345052081387</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.499756363605853</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.490310123670788</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-6.5423369475422</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-6.52070126180793</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.009446239935064601</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.509214028175938</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.499756363605853</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-6.56386638334654</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-6.5423369475422</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0094576645700849</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.518682808882164</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.509214028175938</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-6.58528960613383</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-6.56386638334654</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.009468780706226001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.528162398670143</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.518682808882164</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-6.60660655009054</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-6.58528960613383</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.009479589787978601</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.537652491789898</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.528162398670143</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-6.62781705097678</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-6.60660655009054</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.009490093119755599</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5471527836636561</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.537652491789898</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-6.64892085010594</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-6.62781705097678</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.009500291873757701</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5566629707609539</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5471527836636561</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-6.66991759803099</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-6.64892085010594</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0095101870972976</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.566182750480581</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5566629707609539</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-6.69080685796168</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-6.66991759803099</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0095197797196274</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.575711821038892</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.566182750480581</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-6.71158810893509</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-6.69080685796168</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.009529070558310501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.585249881364067</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.575711821038892</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-6.73226074875926</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-6.71158810893509</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0095380603251751</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.594796630995951</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.585249881364067</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-6.75282409674831</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-6.73226074875926</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.009546749631884</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.604351769991101</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.594796630995951</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-6.77327739626551</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-6.75282409674831</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.009555138995149899</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.613914998832725</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.604351769991101</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-6.79361981708939</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-6.77327739626551</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0095632288416241</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.623486018345211</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.613914998832725</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-6.81385045761667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-6.79361981708939</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.009571019512486199</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.633064529612966</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.623486018345211</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-6.8339683469146</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-6.81385045761667</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0095785112677544</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.642650233903306</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.633064529612966</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-6.85397244663416</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-6.8339683469146</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.009585704290339701</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.65224283259317</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.642650233903306</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-6.87386165279476</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-6.85397244663416</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.009592598689864</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.661842027099427</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.65224283259317</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-6.89363479745008</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-6.87386165279476</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.009599194506256899</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.671447518812577</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.661842027099427</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-6.91329065024392</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-6.89363479745008</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0096054917131506</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.681059009033663</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.671447518812577</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-6.93282791986441</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-6.91329065024392</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0096114902210857</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.690676198914205</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.681059009033663</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-6.95224525540403</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-6.93282791986441</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.009617189880542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.700298789399013</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.690676198914205</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-6.97154124763249</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-6.95224525540403</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0096225904848078</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.709926481171711</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.700298789399013</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-6.99071443018894</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-6.97154124763249</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0096276917726982</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.719558974602845</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.709926481171711</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-7.00976328069958</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-6.99071443018894</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.009632493431133499</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.729195969700433</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.719558974602845</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-7.02868622182614</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-7.00976328069958</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0096369950975882</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.738837166062851</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.729195969700433</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-7.04748162225052</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-7.02868622182614</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.009641196362418</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.748482262833928</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.738837166062851</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-7.06614779760038</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-7.04748162225052</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0096450967710768</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.758130958660154</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.748482262833928</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-7.08468301132021</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-7.06614779760038</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.009648695826226499</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.767782951649907</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.758130958660154</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-7.10308547549211</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-7.08468301132021</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.009651992989752301</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.777437939334592</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.767782951649907</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-7.12135335161019</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-7.10308547549211</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0096549876846858</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.787095618631638</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.777437939334592</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-7.1394847513124</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-7.12135335161019</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0096576792970452</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7967556858092349</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.787095618631638</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-7.15747773707314</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-7.1394847513124</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0096600671775971</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.806417836452781</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7967556858092349</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-7.17533032286005</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-7.15747773707314</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0096621506435461</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.816081765432937</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.806417836452781</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-7.19304047475809</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-7.17533032286005</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.009663928980156399</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.825747166875249</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.816081765432937</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-7.21060611156367</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-7.19304047475809</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.009665401442311299</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.835413734131263</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.825747166875249</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-7.22802510535189</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-7.21060611156367</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0096665672560138</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.845081159751098</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.835413734131263</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-7.24529528201923</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-7.22802510535189</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0096674256198353</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.854749135457409</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.845081159751098</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-7.26241442180448</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-7.24529528201923</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.009667975706311499</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.864417352120704</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.854749135457409</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-7.27938025978999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-7.26241442180448</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.009668216663294</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8740854997359629</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.864417352120704</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-7.29619048638588</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-7.27938025978999</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0096681476152593</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8837532674005401</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8740854997359629</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-7.31284274779906</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-7.29619048638588</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0096677676645772</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.893420343293283</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.8837532674005401</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-7.32933464648939</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-7.31284274779906</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.009667075892743101</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9030864146548619</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.893420343293283</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-7.34566374161488</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-7.32933464648939</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0096660713615783</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.912751167769259</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9030864146548619</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-7.36182754946788</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-7.34566374161488</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.009664753114397301</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.922414287946408</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.912751167769259</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-7.37782354390419</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-7.36182754946788</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3106.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.009663120177148699</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,25 +480,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
       <c r="E2" t="n">
-        <v>-0.9375</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000001</v>
+        <v>1.0005</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.94736842105263</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75</v>
+        <v>-2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.20775623268698</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9375</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.101351351351351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.98936170212766</v>
+        <v>-1.33333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>1.94736842105263</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0424400181077416</v>
+        <v>-0.222222222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.20775623268698</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0211089220377145</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.99786780383795</v>
+        <v>-1.4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.98936170212766</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>-1.33333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.008524238387713899</v>
+        <v>-0.0400000000000003</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0424400181077416</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>-0.222222222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0042575898635301</v>
+        <v>0.0666666666666664</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.99957337883959</v>
+        <v>-1.41176470588235</v>
       </c>
       <c r="C6" t="n">
-        <v>1.99786780383795</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>-1.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0017063026360237</v>
+        <v>-0.0069204152249138</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.008524238387713899</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>-0.0400000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008529694482265</v>
+        <v>0.0117647058823529</v>
       </c>
     </row>
     <row r="7">
@@ -610,25 +610,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.99991466848707</v>
+        <v>-1.41379310344828</v>
       </c>
       <c r="C7" t="n">
-        <v>1.99957337883959</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>-1.41176470588235</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0003413187702436</v>
+        <v>-0.001189060642093</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0017063026360237</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>-0.0069204152249138</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001706521047421</v>
+        <v>0.0020283975659229</v>
       </c>
     </row>
     <row r="8">
@@ -636,103 +636,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.99998293340615</v>
+        <v>-1.41414141414141</v>
       </c>
       <c r="C8" t="n">
-        <v>1.99991466848707</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>-1.41379310344828</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.826608412824339e-05</v>
+        <v>-0.0002040608101208</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0003413187702436</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>-0.001189060642093</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4132750804102e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.99999658666958</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.99998293340615</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.36533100323355e-05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-6.826608412824339e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.82664336504653e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.99999931733345</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.99999658666958</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-2.73066573486247e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-1.36533100323355e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.36533240132136e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.99999986346667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.99999931733345</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5.46133295920015e-07</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2.73066573486247e-06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.73066629408884e-07</v>
+        <v>0.0003483106931385</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,25 +480,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>-0.441888565985864</v>
       </c>
       <c r="C2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
       <c r="E2" t="n">
-        <v>-0.9375</v>
+        <v>-0.427647387672114</v>
       </c>
       <c r="F2" t="n">
-        <v>-3</v>
+        <v>-0.909297426825682</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0.8414709848078969</v>
       </c>
       <c r="H2" t="n">
-        <v>1.000001</v>
+        <v>1.0005</v>
       </c>
     </row>
     <row r="3">
@@ -506,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.94736842105263</v>
+        <v>0.043976182274927</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75</v>
+        <v>-0.441888565985864</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.20775623268698</v>
+        <v>0.0439620093551967</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9375</v>
+        <v>-0.427647387672114</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>0.8414709848078969</v>
       </c>
       <c r="H3" t="n">
-        <v>0.101351351351351</v>
+        <v>0.485864748260791</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.98936170212766</v>
+        <v>-0.0013146680411116</v>
       </c>
       <c r="C4" t="n">
-        <v>1.94736842105263</v>
+        <v>-0.441888565985864</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.043976182274927</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0424400181077416</v>
+        <v>-0.0013146676624101</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.20775623268698</v>
+        <v>-0.427647387672114</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0.0439620093551967</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0211089220377145</v>
+        <v>0.0452908503160387</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.99786780383795</v>
+        <v>4.11161595739468e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.98936170212766</v>
+        <v>-0.0013146680411116</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.043976182274927</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.008524238387713899</v>
+        <v>4.11161595739457e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0424400181077416</v>
+        <v>-0.0013146676624101</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0.0439620093551967</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0042575898635301</v>
+        <v>0.0013150792027074</v>
       </c>
     </row>
     <row r="6">
@@ -584,155 +584,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.99957337883959</v>
+        <v>-1.18401599288886e-13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.99786780383795</v>
+        <v>-0.0013146680411116</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4.11161595739468e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0017063026360237</v>
+        <v>-1.18401599288886e-13</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.008524238387713899</v>
+        <v>-0.0013146676624101</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.11161595739457e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008529694482265</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.99991466848707</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.99957337883959</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.0003413187702436</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.0017063026360237</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0001706521047421</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.99998293340615</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.99991466848707</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-6.826608412824339e-05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.0003413187702436</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.4132750804102e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.99999658666958</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.99998293340615</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1.36533100323355e-05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-6.826608412824339e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.82664336504653e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.99999931733345</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.99999658666958</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-2.73066573486247e-06</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-1.36533100323355e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.36533240132136e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.99999986346667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.99999931733345</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5.46133295920015e-07</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-2.73066573486247e-06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.73066629408884e-07</v>
+        <v>4.11161714141068e-07</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,19 +480,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-1.55555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
         <v>-1</v>
@@ -506,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>0.200000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-1.96</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>-2</v>
+        <v>-1.55555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.466666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.33333333333333</v>
+        <v>-0.31578947368421</v>
       </c>
       <c r="C4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>0.200000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.222222222222222</v>
+        <v>-1.90027700831025</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>-1</v>
+        <v>-1.96</v>
       </c>
       <c r="H4" t="n">
-        <v>0.333333333333333</v>
+        <v>0.515789473684211</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.4</v>
+        <v>-0.756097560975609</v>
       </c>
       <c r="C5" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.33333333333333</v>
+        <v>-0.31578947368421</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0400000000000003</v>
+        <v>-1.42831647828674</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.222222222222222</v>
+        <v>-1.90027700831025</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0666666666666664</v>
+        <v>0.440308087291399</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.41176470588235</v>
+        <v>-1.05641025641026</v>
       </c>
       <c r="C6" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.4</v>
+        <v>-0.756097560975609</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0069204152249138</v>
+        <v>-0.883997370151217</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0400000000000003</v>
+        <v>-1.42831647828674</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0117647058823529</v>
+        <v>0.300312695434647</v>
       </c>
     </row>
     <row r="7">
@@ -610,25 +610,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.41379310344828</v>
+        <v>-1.23123732251521</v>
       </c>
       <c r="C7" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.41176470588235</v>
+        <v>-1.05641025641026</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001189060642093</v>
+        <v>-0.48405465564557</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0069204152249138</v>
+        <v>-0.883997370151217</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0020283975659229</v>
+        <v>0.174827066104957</v>
       </c>
     </row>
     <row r="8">
@@ -636,25 +636,233 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.41414141414141</v>
+        <v>-1.32376890267546</v>
       </c>
       <c r="C8" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.41379310344828</v>
+        <v>-1.23123732251521</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0002040608101208</v>
+        <v>-0.24763589230942</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001189060642093</v>
+        <v>-0.48405465564557</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0003483106931385</v>
+        <v>0.0925315801602427</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.37028404952658</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.32376890267546</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.122321623613025</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.24763589230942</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0465151468511289</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.39306154555565</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.37028404952658</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0593795302941151</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.122321623613025</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0227774960290614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.40407190206512</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.39306154555565</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0285820938312298</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0593795302941151</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0110103565094763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.40936089420831</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.40407190206512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.0137018698763616</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.0285820938312298</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0052889921431846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.41189388657919</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.40936089420831</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.006555653040319</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0137018698763616</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0025329923708796</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.41310522833453</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.41189388657919</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0031336136536064</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.006555653040319</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0012113417553467</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.41368412224504</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.41310522833453</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.001497202512275</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.0031336136536064</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0005788939105050999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.41396068114254</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.41368412224504</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0007151921829204</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.001497202512275</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0002765588975028</v>
       </c>
     </row>
   </sheetData>

--- a/app/tables/tabla_reglaFalsa.xlsx
+++ b/app/tables/tabla_reglaFalsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,22 +480,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.441888565985864</v>
+        <v>-1.71428571428571</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.427647387672114</v>
+        <v>-5.03790087463557</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.909297426825682</v>
+        <v>-8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8414709848078969</v>
+        <v>216</v>
       </c>
       <c r="H2" t="n">
         <v>1.0005</v>
@@ -506,25 +506,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043976182274927</v>
+        <v>-1.53846153846154</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.441888565985864</v>
+        <v>-1.71428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0439620093551967</v>
+        <v>-3.64132908511607</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.427647387672114</v>
+        <v>-5.03790087463557</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8414709848078969</v>
+        <v>216</v>
       </c>
       <c r="H3" t="n">
-        <v>0.485864748260791</v>
+        <v>0.175824175824176</v>
       </c>
     </row>
     <row r="4">
@@ -532,25 +532,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0013146680411116</v>
+        <v>-1.41348497156783</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.441888565985864</v>
+        <v>-1.53846153846154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.043976182274927</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0013146676624101</v>
+        <v>-2.82405783171057</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.427647387672114</v>
+        <v>-3.64132908511607</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0439620093551967</v>
+        <v>216</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0452908503160387</v>
+        <v>0.124976566893708</v>
       </c>
     </row>
     <row r="5">
@@ -558,25 +558,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.11161595739468e-07</v>
+        <v>-1.31780942975731</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0013146680411116</v>
+        <v>-1.41348497156783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.043976182274927</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4.11161595739457e-07</v>
+        <v>-2.2885364431638</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0013146676624101</v>
+        <v>-2.82405783171057</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0439620093551967</v>
+        <v>216</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0013150792027074</v>
+        <v>0.09567554181051691</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,6265 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.18401599288886e-13</v>
+        <v>-1.2410895349016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0013146680411116</v>
+        <v>-1.31780942975731</v>
       </c>
       <c r="D6" t="n">
-        <v>4.11161595739468e-07</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.18401599288886e-13</v>
+        <v>-1.91165422384851</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0013146676624101</v>
+        <v>-2.2885364431638</v>
       </c>
       <c r="G6" t="n">
-        <v>4.11161595739457e-07</v>
+        <v>216</v>
       </c>
       <c r="H6" t="n">
-        <v>4.11161714141068e-07</v>
+        <v>0.0767198948557144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.17756627156828</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.2410895349016</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.63288678272062</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.91165422384851</v>
+      </c>
+      <c r="G7" t="n">
+        <v>216</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0635232633333154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.12371341288408</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.17756627156828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.41894869907367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.63288678272062</v>
+      </c>
+      <c r="G8" t="n">
+        <v>216</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0538528586842038</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.07722167911263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.12371341288408</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.25001508788181</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.41894869907367</v>
+      </c>
+      <c r="G9" t="n">
+        <v>216</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0464917337714483</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.03650069745656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.07722167911263</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.11354762502674</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.25001508788181</v>
+      </c>
+      <c r="G10" t="n">
+        <v>216</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0407209816560721</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.00041138508585</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.03650069745656</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.00123466304025</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.11354762502674</v>
+      </c>
+      <c r="G11" t="n">
+        <v>216</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.036089312370706</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.968111778380053</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.00041138508585</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.907353485359524</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.00123466304025</v>
+      </c>
+      <c r="G12" t="n">
+        <v>216</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0322996067058017</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.938963202239619</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.968111778380053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.8278386867401381</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.907353485359524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>216</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0291485761404333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.912470560798963</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.938963202239619</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.75972529229326</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.8278386867401381</v>
+      </c>
+      <c r="G14" t="n">
+        <v>216</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0264926414406559</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.888242910989065</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.912470560798963</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.70080186721453</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.75972529229326</v>
+      </c>
+      <c r="G15" t="n">
+        <v>216</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0242276498098988</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.86596660443065</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.888242910989065</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.649386763274596</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.70080186721453</v>
+      </c>
+      <c r="G16" t="n">
+        <v>216</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0222763065584148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.845386496189335</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.86596660443065</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.604179407559041</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.649386763274596</v>
+      </c>
+      <c r="G17" t="n">
+        <v>216</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.020580108241315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.826292489928272</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.845386496189335</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.564158864593715</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.604179407559041</v>
+      </c>
+      <c r="G18" t="n">
+        <v>216</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0190940062610629</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.808509707030616</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.826292489928272</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.5285130500031781</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.564158864593715</v>
+      </c>
+      <c r="G19" t="n">
+        <v>216</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0177827828976559</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.791891174069056</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.808509707030616</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.496588328371635</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5285130500031781</v>
+      </c>
+      <c r="G20" t="n">
+        <v>216</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0166185329615597</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.776312296310958</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.791891174069056</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.46785297510798</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.496588328371635</v>
+      </c>
+      <c r="G21" t="n">
+        <v>216</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0155788777580982</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.76166662110091</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.776312296310958</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.441870258659945</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.46785297510798</v>
+      </c>
+      <c r="G22" t="n">
+        <v>216</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.014645675210048</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.747862548093836</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.76166662110091</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.418278319719436</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.441870258659945</v>
+      </c>
+      <c r="G23" t="n">
+        <v>216</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.013804073007074</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.734820744831061</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.747862548093836</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.396774931475296</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.418278319719436</v>
+      </c>
+      <c r="G24" t="n">
+        <v>216</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0130418032627756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.722472094809012</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.734820744831061</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.377105817260501</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.396774931475296</v>
+      </c>
+      <c r="G25" t="n">
+        <v>216</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0123486500220483</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.710756052468263</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.722472094809012</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.359055596120588</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.377105817260501</v>
+      </c>
+      <c r="G26" t="n">
+        <v>216</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0117160423407495</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.69961931262532</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.710756052468263</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.342440693842092</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.359055596120588</v>
+      </c>
+      <c r="G27" t="n">
+        <v>216</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0111367398429429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.689014725386055</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.69961931262532</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.327103740798185</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.342440693842092</v>
+      </c>
+      <c r="G28" t="n">
+        <v>216</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0106045872392647</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.67890040452153</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.689014725386055</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.312909106407575</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.327103740798185</v>
+      </c>
+      <c r="G29" t="n">
+        <v>216</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0101143208645255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.6692389896480599</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.67890040452153</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.299739310983193</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.312909106407575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>216</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009661414873469099</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.659997031678498</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.6692389896480599</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.287492121014907</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.299739310983193</v>
+      </c>
+      <c r="G31" t="n">
+        <v>216</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.009241957969562099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.651144477821528</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.659997031678498</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.276078181305352</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.287492121014907</v>
+      </c>
+      <c r="G32" t="n">
+        <v>216</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0088525538569699</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.642654237539398</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.651144477821528</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.265419072143132</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.276078181305352</v>
+      </c>
+      <c r="G33" t="n">
+        <v>216</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0084902402821304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.634501814781013</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.642654237539398</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.255445705470694</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.265419072143132</v>
+      </c>
+      <c r="G34" t="n">
+        <v>216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0081524227583847</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.626664994806401</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.634501814781013</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.24609699329391</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.255445705470694</v>
+      </c>
+      <c r="G35" t="n">
+        <v>216</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.007836819974612301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.619123576239949</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.626664994806401</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.237318736147322</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.24609699329391</v>
+      </c>
+      <c r="G36" t="n">
+        <v>216</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0075414185664513</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.611859140800695</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.619123576239949</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.229062690522024</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.237318736147322</v>
+      </c>
+      <c r="G37" t="n">
+        <v>216</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0072644354392543</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.604854854580798</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.611859140800695</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.221285782677707</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.229062690522024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>216</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0070042862198969</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.598095295869092</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.604854854580798</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.213949442844635</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.221285782677707</v>
+      </c>
+      <c r="G39" t="n">
+        <v>216</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0067595587117059</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.591566305412997</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.598095295869092</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.207019038948814</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.213949442844635</v>
+      </c>
+      <c r="G40" t="n">
+        <v>216</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0065289904560952</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.585254855730283</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.591566305412997</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.200463393013224</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.207019038948814</v>
+      </c>
+      <c r="G41" t="n">
+        <v>216</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0063114496827143</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.57914893666092</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.585254855730283</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.194254366559092</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.200463393013224</v>
+      </c>
+      <c r="G42" t="n">
+        <v>216</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0061059190693629</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.573237454818196</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.57914893666092</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.188366503847855</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.194254366559092</v>
+      </c>
+      <c r="G43" t="n">
+        <v>216</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0059114818427231</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.567510144980255</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.573237454818196</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.182776723813116</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.188366503847855</v>
+      </c>
+      <c r="G44" t="n">
+        <v>216</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.005727309837941</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.561957491775868</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.567510144980255</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.177464053143811</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.182776723813116</v>
+      </c>
+      <c r="G45" t="n">
+        <v>216</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0055526532043875</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.556570660275422</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.561957491775868</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.17240939428</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.177464053143811</v>
+      </c>
+      <c r="G46" t="n">
+        <v>216</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0053868315004457</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.551341434310557</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.556570660275422</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.167595323136584</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.17240939428</v>
+      </c>
+      <c r="G47" t="n">
+        <v>216</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0052292259648655</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.546262161522144</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.551341434310557</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.163005912228576</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.167595323136584</v>
+      </c>
+      <c r="G48" t="n">
+        <v>216</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0050792727884124</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.541325704283205</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.546262161522144</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.158626575573653</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.163005912228576</v>
+      </c>
+      <c r="G49" t="n">
+        <v>216</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0049364572389394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.536525395766165</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.541325704283205</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.154443932324602</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.158626575573653</v>
+      </c>
+      <c r="G50" t="n">
+        <v>216</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0048003085170398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.531855000527019</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.536525395766165</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.150445686560085</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.154443932324602</v>
+      </c>
+      <c r="G51" t="n">
+        <v>216</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0046703952391459</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.527308679065854</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.531855000527019</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.146620521056306</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.150445686560085</v>
+      </c>
+      <c r="G52" t="n">
+        <v>216</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.004546321461165</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.522880955896679</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-0.527308679065854</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.142958003189782</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.146620521056306</v>
+      </c>
+      <c r="G53" t="n">
+        <v>216</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0044277231691751</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.518566690721841</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.522880955896679</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.139448501394761</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.142958003189782</v>
+      </c>
+      <c r="G54" t="n">
+        <v>216</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.004314265174838</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.51436105235936</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.518566690721841</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.136083110827746</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.139448501394761</v>
+      </c>
+      <c r="G55" t="n">
+        <v>216</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0042056383624811</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.510259495116807</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.51436105235936</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.132853587083823</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.136083110827746</v>
+      </c>
+      <c r="G56" t="n">
+        <v>216</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0041015572425525</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.506257737344131</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.510259495116807</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.129752286971568</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.132853587083823</v>
+      </c>
+      <c r="G57" t="n">
+        <v>216</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0040017577726762</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.502351741931126</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.506257737344131</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.126772115490266</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.129752286971568</v>
+      </c>
+      <c r="G58" t="n">
+        <v>216</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0039059954130051</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.498537698543914</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.502351741931126</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.123906478269382</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.126772115490266</v>
+      </c>
+      <c r="G59" t="n">
+        <v>216</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0038140433872113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.494812007419558</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.498537698543914</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.121149238828985</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.123906478269382</v>
+      </c>
+      <c r="G60" t="n">
+        <v>216</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0037256911243567</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.491171264559326</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.494812007419558</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.118494680104076</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.121149238828985</v>
+      </c>
+      <c r="G61" t="n">
+        <v>216</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0036407428602311</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.487612248179755</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.491171264559326</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.115937469747818</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.118494680104076</v>
+      </c>
+      <c r="G62" t="n">
+        <v>216</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.003559016379571</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.484131906296759</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.487612248179755</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.113472628790398</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.115937469747818</v>
+      </c>
+      <c r="G63" t="n">
+        <v>216</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.003480341882996</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.480727345332182</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.484131906296759</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.111095503283367</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.113472628790398</v>
+      </c>
+      <c r="G64" t="n">
+        <v>216</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0034045609645771</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.477395819644455</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.480727345332182</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.108801738605</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.111095503283367</v>
+      </c>
+      <c r="G65" t="n">
+        <v>216</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0033315256877267</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.47413472189582</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.477395819644455</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.106587256141726</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.108801738605</v>
+      </c>
+      <c r="G66" t="n">
+        <v>216</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0032610977486354</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.470941574178019</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.47413472189582</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.104448232094862</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.106587256141726</v>
+      </c>
+      <c r="G67" t="n">
+        <v>216</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0031931477178011</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.46781401982668</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.470941574178019</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.102381078191553</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.104448232094862</v>
+      </c>
+      <c r="G68" t="n">
+        <v>216</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0031275543513391</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.464749815861927</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.46781401982668</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.100382424104559</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.102381078191553</v>
+      </c>
+      <c r="G69" t="n">
+        <v>216</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0030642039647527</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.461746825999224</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.464749815861927</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.0984491014080531</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.100382424104559</v>
+      </c>
+      <c r="G70" t="n">
+        <v>216</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0030029898627025</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.458803014180161</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.461746825999224</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.09657812891612789</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.0984491014080531</v>
+      </c>
+      <c r="G71" t="n">
+        <v>216</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0029438118190632</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.455916438577954</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.458803014180161</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.0947666992679283</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.09657812891612789</v>
+      </c>
+      <c r="G72" t="n">
+        <v>216</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.002886575602207</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.453085246036929</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.455916438577954</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.09301216663829499</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.0947666992679283</v>
+      </c>
+      <c r="G73" t="n">
+        <v>216</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0028311925410253</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.45030766690923</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.453085246036929</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.09131203546603241</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.09301216663829499</v>
+      </c>
+      <c r="G74" t="n">
+        <v>216</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0027775791276983</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.44758201025557</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.45030766690923</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.08966395010350579</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.09131203546603241</v>
+      </c>
+      <c r="G75" t="n">
+        <v>216</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0027256566536602</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.444906659379976</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.44758201025557</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.0880656853014951</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.08966395010350579</v>
+      </c>
+      <c r="G76" t="n">
+        <v>216</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0026753508755944</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.442280067671348</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.444906659379976</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.0865151374522596</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.0880656853014951</v>
+      </c>
+      <c r="G77" t="n">
+        <v>216</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0026265917086279</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.43970075472715</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.442280067671348</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.0850103165217402</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.0865151374522596</v>
+      </c>
+      <c r="G78" t="n">
+        <v>216</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0025793129441973</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.437167302736831</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.43970075472715</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.08354933860889199</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.0850103165217402</v>
+      </c>
+      <c r="G79" t="n">
+        <v>216</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0025334519903196</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.434678353104595</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.437167302736831</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.0821304190764011</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.08354933860889199</v>
+      </c>
+      <c r="G80" t="n">
+        <v>216</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0024889496322353</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.432232603292996</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.434678353104595</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.0807518662026037</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.0821304190764011</v>
+      </c>
+      <c r="G81" t="n">
+        <v>216</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0024457498115988</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.429828803870423</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.432232603292996</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.0794120753093745</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.0807518662026037</v>
+      </c>
+      <c r="G82" t="n">
+        <v>216</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0024037994225731</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.427465755747072</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.429828803870423</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.0781095233251603</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.0794120753093745</v>
+      </c>
+      <c r="G83" t="n">
+        <v>216</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0023630481233509</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.425142307585305</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-0.427465755747072</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.0768427637462662</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.0781095233251603</v>
+      </c>
+      <c r="G84" t="n">
+        <v>216</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0023234481617676</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.422857353371503</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.425142307585305</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.0756104219630155</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.0768427637462662</v>
+      </c>
+      <c r="G85" t="n">
+        <v>216</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0022849542138013</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.42060983013763</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.422857353371503</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.07441119092054931</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.0756104219630155</v>
+      </c>
+      <c r="G86" t="n">
+        <v>216</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0022475232338731</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.418398715821671</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.42060983013763</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.0732438270868427</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.07441119092054931</v>
+      </c>
+      <c r="G87" t="n">
+        <v>216</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0022111143159593</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.416223027257046</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.418398715821671</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.07210714670304399</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.0732438270868427</v>
+      </c>
+      <c r="G88" t="n">
+        <v>216</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0021756885646251</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.414081818281878</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.416223027257046</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.0710000222935053</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.07210714670304399</v>
+      </c>
+      <c r="G89" t="n">
+        <v>216</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0021412089751675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.411974177959746</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.414081818281878</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.06992137941491761</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.0710000222935053</v>
+      </c>
+      <c r="G90" t="n">
+        <v>216</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.002107640322132</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.409899228904211</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.411974177959746</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.06887019362579121</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.06992137941491761</v>
+      </c>
+      <c r="G91" t="n">
+        <v>216</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0020749490555351</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.40785612570003</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.409899228904211</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.06784548765918361</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.06887019362579121</v>
+      </c>
+      <c r="G92" t="n">
+        <v>216</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0020431032041813</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.405844053414508</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.40785612570003</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.06684632878306231</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.06784548765918361</v>
+      </c>
+      <c r="G93" t="n">
+        <v>216</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0020120722855212</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.403862226192964</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.405844053414508</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.06587182633404309</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.06684632878306231</v>
+      </c>
+      <c r="G94" t="n">
+        <v>216</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0019818272215441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.401909885932722</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.403862226192964</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.0649211294114604</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.06587182633404309</v>
+      </c>
+      <c r="G95" t="n">
+        <v>216</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0019523402602423</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.399986301030496</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.401909885932722</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.06399342471982961</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.0649211294114604</v>
+      </c>
+      <c r="G96" t="n">
+        <v>216</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0019235849022258</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.398090765198397</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.399986301030496</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.063087934548764</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.06399342471982961</v>
+      </c>
+      <c r="G97" t="n">
+        <v>216</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0018955358320988</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.39622259634415</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.398090765198397</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.0622039148803112</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.063087934548764</v>
+      </c>
+      <c r="G98" t="n">
+        <v>216</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0018681688542476</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.394381135511438</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.39622259634415</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.061340653614503</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.0622039148803112</v>
+      </c>
+      <c r="G99" t="n">
+        <v>216</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0018414608327111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.392565745876597</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.394381135511438</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.0604974689046563</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.061340653614503</v>
+      </c>
+      <c r="G100" t="n">
+        <v>216</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0018153896348414</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.390775811798121</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.392565745876597</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.059673707594648</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.0604974689046563</v>
+      </c>
+      <c r="G101" t="n">
+        <v>216</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0017899340784763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.389010737915743</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.390775811798121</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.0588687437510043</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.059673707594648</v>
+      </c>
+      <c r="G102" t="n">
+        <v>216</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.001765073882377</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.387269948296046</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-0.389010737915743</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.0580819772832109</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.0588687437510043</v>
+      </c>
+      <c r="G103" t="n">
+        <v>216</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0017407896196978</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.385552885621771</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.387269948296046</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.0573128326461682</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.0580819772832109</v>
+      </c>
+      <c r="G104" t="n">
+        <v>216</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0017170626742751</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.383859010422229</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.385552885621771</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.0565607576191841</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.0573128326461682</v>
+      </c>
+      <c r="G105" t="n">
+        <v>216</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0016938751995419</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.382187800342343</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.383859010422229</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.0558252221563297</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.0565607576191841</v>
+      </c>
+      <c r="G106" t="n">
+        <v>216</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0016712100798855</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.380538749448061</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.382187800342343</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.0551057173033757</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.0558252221563297</v>
+      </c>
+      <c r="G107" t="n">
+        <v>216</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0016490508942824</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.378911367566003</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.380538749448061</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.054401754176889</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.0551057173033757</v>
+      </c>
+      <c r="G108" t="n">
+        <v>216</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0016273818820573</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.37730517965538</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.378911367566003</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.0537128630013989</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.054401754176889</v>
+      </c>
+      <c r="G109" t="n">
+        <v>216</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0016061879106232</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.375719725210308</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.37730517965538</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.0530385922008452</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.0537128630013989</v>
+      </c>
+      <c r="G110" t="n">
+        <v>216</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0015854544450719</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.374154557690815</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-0.375719725210308</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.0523785075407989</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.0530385922008452</v>
+      </c>
+      <c r="G111" t="n">
+        <v>216</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0015651675194931</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.372609243980906</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.374154557690815</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.0517321913182018</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.0523785075407989</v>
+      </c>
+      <c r="G112" t="n">
+        <v>216</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0015453137099093</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.371083363872183</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.372609243980906</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.0510992415956055</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.0517321913182018</v>
+      </c>
+      <c r="G113" t="n">
+        <v>216</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0015258801087224</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.369576509571608</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.371083363872183</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.0504792714771074</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.0510992415956055</v>
+      </c>
+      <c r="G114" t="n">
+        <v>216</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0015068543005754</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.368088285232069</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.369576509571608</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.0498719084233787</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.0504792714771074</v>
+      </c>
+      <c r="G115" t="n">
+        <v>216</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0014882243395389</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.366618306504529</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.368088285232069</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.0492767936033635</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.0498719084233787</v>
+      </c>
+      <c r="G116" t="n">
+        <v>216</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0014699787275397</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.365166200110575</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.366618306504529</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.0486935812803972</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.0492767936033635</v>
+      </c>
+      <c r="G117" t="n">
+        <v>216</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0014521063939534</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.363731603434286</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.365166200110575</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.0481219382306476</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.0486935812803972</v>
+      </c>
+      <c r="G118" t="n">
+        <v>216</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0014345966762891</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.362314164132387</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.363731603434286</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.047561543191926</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.0481219382306476</v>
+      </c>
+      <c r="G119" t="n">
+        <v>216</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0014174393018998</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.360913539761732</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.362314164132387</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.0470120863410483</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.047561543191926</v>
+      </c>
+      <c r="G120" t="n">
+        <v>216</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.001400624370655</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.359529397423213</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.360913539761732</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.0464732687980503</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.0470120863410483</v>
+      </c>
+      <c r="G121" t="n">
+        <v>216</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0013841423385189</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.358161413421234</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.359529397423213</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.0459448021556729</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.0464732687980503</v>
+      </c>
+      <c r="G122" t="n">
+        <v>216</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0013679840019783</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.356809272937963</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.358161413421234</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.0454264080326393</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.0459448021556729</v>
+      </c>
+      <c r="G123" t="n">
+        <v>216</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0013521404832707</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.355472669721597</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.356809272937963</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.0449178176493442</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.0454264080326393</v>
+      </c>
+      <c r="G124" t="n">
+        <v>216</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.001336603216366</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.354151305787941</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.355472669721597</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.0444187714246637</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.0449178176493442</v>
+      </c>
+      <c r="G125" t="n">
+        <v>216</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0013213639336561</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.352844891134628</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.354151305787941</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.0439290185926799</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.0444187714246637</v>
+      </c>
+      <c r="G126" t="n">
+        <v>216</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0013064146533132</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.351553143467351</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.352844891134628</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.0434483168381908</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.0439290185926799</v>
+      </c>
+      <c r="G127" t="n">
+        <v>216</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0012917476672767</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.350275787937517</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.351553143467351</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.0429764319499495</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.0434483168381908</v>
+      </c>
+      <c r="G128" t="n">
+        <v>216</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0012773555298342</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.349012556890755</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.350275787937517</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.0425131374906408</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.0429764319499495</v>
+      </c>
+      <c r="G129" t="n">
+        <v>216</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.001263231046762</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.347763189625762</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.349012556890755</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.0420582144826707</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.0425131374906408</v>
+      </c>
+      <c r="G130" t="n">
+        <v>216</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0012493672649934</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.346527432162974</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.347763189625762</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.0416114511088961</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.0420582144826707</v>
+      </c>
+      <c r="G131" t="n">
+        <v>216</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0012357574627873</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.345305037022608</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.346527432162974</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.0411726424274814</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.0416114511088961</v>
+      </c>
+      <c r="G132" t="n">
+        <v>216</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0012223951403662</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.344095763011607</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.345305037022608</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.040741590100115</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.0411726424274814</v>
+      </c>
+      <c r="G133" t="n">
+        <v>216</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0012092740110007</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.342899375019092</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.344095763011607</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-0.0403181021328676</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.040741590100115</v>
+      </c>
+      <c r="G134" t="n">
+        <v>216</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0011963879925153</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.341715643819902</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-0.342899375019092</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.0399019926290168</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.0403181021328676</v>
+      </c>
+      <c r="G135" t="n">
+        <v>216</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0011837311991904</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.340544345885858</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.341715643819902</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.0394930815532042</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.0399019926290168</v>
+      </c>
+      <c r="G136" t="n">
+        <v>216</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0011712979340439</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.33938526320439</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.340544345885858</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.0390911945063272</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.0394930815532042</v>
+      </c>
+      <c r="G137" t="n">
+        <v>216</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0011590826814671</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.338238183104191</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.33938526320439</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.0386961625106057</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.0390911945063272</v>
+      </c>
+      <c r="G138" t="n">
+        <v>216</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0011470801001998</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.337102898087566</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.338238183104191</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.0383078218042946</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.0386961625106057</v>
+      </c>
+      <c r="G139" t="n">
+        <v>216</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0011352850166241</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.335979205669203</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.337102898087566</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.0379260136455455</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.0383078218042946</v>
+      </c>
+      <c r="G140" t="n">
+        <v>216</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.0011236924183634</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.334866908221037</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.335979205669203</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.0375505841249488</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.0379260136455455</v>
+      </c>
+      <c r="G141" t="n">
+        <v>216</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.0011122974481662</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.333765812822971</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.334866908221037</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.0371813839863157</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.0375505841249488</v>
+      </c>
+      <c r="G142" t="n">
+        <v>216</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.0011010953980654</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.332675731119177</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.333765812822971</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.0368182684552831</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.0371813839863157</v>
+      </c>
+      <c r="G143" t="n">
+        <v>216</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0010900817037942</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.331596479179728</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.332675731119177</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.0364610970753503</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.0368182684552831</v>
+      </c>
+      <c r="G144" t="n">
+        <v>216</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.0010792519394489</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.330527877367344</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.331596479179728</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.0361097335509766</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.0364610970753503</v>
+      </c>
+      <c r="G145" t="n">
+        <v>216</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0010686018123838</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.329469750209016</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.330527877367344</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.0357640455973902</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.0361097335509766</v>
+      </c>
+      <c r="G146" t="n">
+        <v>216</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0010581271583287</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.328421926272299</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.329469750209016</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.03542390479678</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.0357640455973902</v>
+      </c>
+      <c r="G147" t="n">
+        <v>216</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0010478239367163</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.32738423804609</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.328421926272299</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.035089186460557</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.03542390479678</v>
+      </c>
+      <c r="G148" t="n">
+        <v>216</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0010376882262092</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.326356521825672</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.32738423804609</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.0347597694973924</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.035089186460557</v>
+      </c>
+      <c r="G149" t="n">
+        <v>216</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.001027716220418</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.325338617601872</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.326356521825672</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.034435536286753</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.0347597694973924</v>
+      </c>
+      <c r="G150" t="n">
+        <v>216</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0010179042237999</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.324330368954143</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.325338617601872</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.0341163725576717</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.034435536286753</v>
+      </c>
+      <c r="G151" t="n">
+        <v>216</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0010082486477293</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.32333162294741</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.324330368954143</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-0.033802167272503</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.0341163725576717</v>
+      </c>
+      <c r="G152" t="n">
+        <v>216</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0009987460067323001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.322342230032533</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.32333162294741</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.0334928125154296</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.033802167272503</v>
+      </c>
+      <c r="G153" t="n">
+        <v>216</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0009893929148776001</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.321362043950217</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.322342230032533</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.0331882033854946</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.0334928125154296</v>
+      </c>
+      <c r="G154" t="n">
+        <v>216</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0009801860823155999</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.320390921638258</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.321362043950217</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.0328882378939515</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.0331882033854946</v>
+      </c>
+      <c r="G155" t="n">
+        <v>216</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0009711223119591</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.319428723141959</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.320390921638258</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.0325928168657281</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.0328882378939515</v>
+      </c>
+      <c r="G156" t="n">
+        <v>216</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.0009621984962989</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.318475311527611</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.319428723141959</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.0323018438448172</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.0325928168657281</v>
+      </c>
+      <c r="G157" t="n">
+        <v>216</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.0009534116143483</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.317530552798901</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.318475311527611</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.0320152250034146</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.0323018438448172</v>
+      </c>
+      <c r="G158" t="n">
+        <v>216</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.00094475872871</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.316594315816141</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.317530552798901</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-0.031732869054631</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.0320152250034146</v>
+      </c>
+      <c r="G159" t="n">
+        <v>216</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.0009362369827598999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.315666472218198</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.316594315816141</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-0.0314546871686199</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.031732869054631</v>
+      </c>
+      <c r="G160" t="n">
+        <v>216</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0009278435979426</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.314746896347024</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.315666472218198</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.031180592891965</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.0314546871686199</v>
+      </c>
+      <c r="G161" t="n">
+        <v>216</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.0009195758711741</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.313835465174679</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.314746896347024</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-0.0309105020701834</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.031180592891965</v>
+      </c>
+      <c r="G162" t="n">
+        <v>216</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.0009114311723447</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.312932058232758</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.313835465174679</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.0306443327732043</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.0309105020701834</v>
+      </c>
+      <c r="G163" t="n">
+        <v>216</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.0009034069419209</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.312036557544119</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.312932058232758</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.030382005223694</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.0306443327732043</v>
+      </c>
+      <c r="G164" t="n">
+        <v>216</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0008955006886388999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.311148847556832</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.312036557544119</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.0301234417281012</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.030382005223694</v>
+      </c>
+      <c r="G165" t="n">
+        <v>216</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.0008877099872869</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.310268815080259</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.311148847556832</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.0298685666103028</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.0301234417281012</v>
+      </c>
+      <c r="G166" t="n">
+        <v>216</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.0008800324765728</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.309396349223187</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.310268815080259</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.0296173061477401</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.0298685666103028</v>
+      </c>
+      <c r="G167" t="n">
+        <v>216</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0008724658570721</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.308531341333933</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.309396349223187</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-0.0293695885099355</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.0296173061477401</v>
+      </c>
+      <c r="G168" t="n">
+        <v>216</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0008650078892541</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.307673684942351</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.308531341333933</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.0291253436992887</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.0293695885099355</v>
+      </c>
+      <c r="G169" t="n">
+        <v>216</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0008576563915819</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.306823275703668</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.307673684942351</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.0288845034940559</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.0291253436992887</v>
+      </c>
+      <c r="G170" t="n">
+        <v>216</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.000850409238683</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.30598001134408</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.306823275703668</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.0286470013934183</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.0288845034940559</v>
+      </c>
+      <c r="G171" t="n">
+        <v>216</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.0008432643595884</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.305143791608043</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.30598001134408</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.0284127725645519</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.0286470013934183</v>
+      </c>
+      <c r="G172" t="n">
+        <v>216</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0008362197360365</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.304314518207204</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.305143791608043</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-0.0281817537916164</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.0284127725645519</v>
+      </c>
+      <c r="G173" t="n">
+        <v>216</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0008292734008389</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.303492094770897</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.304314518207204</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.0279538834265809</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.0281817537916164</v>
+      </c>
+      <c r="G174" t="n">
+        <v>216</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.0008224234363066</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.302676426798165</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.303492094770897</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-0.027729101341812</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.0279538834265809</v>
+      </c>
+      <c r="G175" t="n">
+        <v>216</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.0008156679727323</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.301867421611237</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.302676426798165</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-0.0275073488843518</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.027729101341812</v>
+      </c>
+      <c r="G176" t="n">
+        <v>216</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.0008090051869283</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.30106498831042</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.301867421611237</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-0.0272885688318144</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.0275073488843518</v>
+      </c>
+      <c r="G177" t="n">
+        <v>216</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.0008024333008168</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.30026903773035</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.30106498831042</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.0270727053498382</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.0272885688318144</v>
+      </c>
+      <c r="G178" t="n">
+        <v>216</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.0007959505800697</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.299479482397553</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.30026903773035</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-0.0268597039510279</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.0270727053498382</v>
+      </c>
+      <c r="G179" t="n">
+        <v>216</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0007895553327976</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.298696236489268</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.299479482397553</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.0266495114553287</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.0268597039510279</v>
+      </c>
+      <c r="G180" t="n">
+        <v>216</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0007832459082849</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.297919215793499</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.298696236489268</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-0.0264420759517731</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.0266495114553287</v>
+      </c>
+      <c r="G181" t="n">
+        <v>216</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.0007770206957686</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.297148337670239</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.297919215793499</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.0262373467615476</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.0264420759517731</v>
+      </c>
+      <c r="G182" t="n">
+        <v>216</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.0007708781232603999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.296383521013829</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.297148337670239</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-0.0260352744023252</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.0262373467615476</v>
+      </c>
+      <c r="G183" t="n">
+        <v>216</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.0007648166564098</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.295624686216423</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.296383521013829</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.0258358105538147</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.0260352744023252</v>
+      </c>
+      <c r="G184" t="n">
+        <v>216</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.000758834797406</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.294871755132505</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.295624686216423</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-0.0256389080244798</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.0258358105538147</v>
+      </c>
+      <c r="G185" t="n">
+        <v>216</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.0007529310839174</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.294124651044437</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.294871755132505</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.0254445207193804</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.0256389080244798</v>
+      </c>
+      <c r="G186" t="n">
+        <v>216</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.0007471040880682</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.293383298628988</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-0.294124651044437</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-0.0252526036090939</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.0254445207193804</v>
+      </c>
+      <c r="G187" t="n">
+        <v>216</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.0007413524154489</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.292647623924828</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.293383298628988</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.0250631126996751</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.0252526036090939</v>
+      </c>
+      <c r="G188" t="n">
+        <v>216</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.0007356747041604999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.291917554300936</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.292647623924828</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.0248760050036136</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.0250631126996751</v>
+      </c>
+      <c r="G189" t="n">
+        <v>216</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.0007300696238912</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.291193018425913</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.291917554300936</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-0.0246912385117517</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.0248760050036136</v>
+      </c>
+      <c r="G190" t="n">
+        <v>216</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.0007245358750234</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.290473946238142</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.291193018425913</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-0.0245087721661253</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.0246912385117517</v>
+      </c>
+      <c r="G191" t="n">
+        <v>216</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.0007190721877709</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.289760268916797</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.290473946238142</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-0.0243285658336936</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.0245087721661253</v>
+      </c>
+      <c r="G192" t="n">
+        <v>216</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.0007136773213445</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.289051918853652</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.289760268916797</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-0.0241505802809245</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.0243285658336936</v>
+      </c>
+      <c r="G193" t="n">
+        <v>216</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.0007083500631451</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.288348829625669</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.289051918853652</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-0.0239747771492019</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-0.0241505802809245</v>
+      </c>
+      <c r="G194" t="n">
+        <v>216</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.000703089227983</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.287650935968346</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.288348829625669</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.0238011189310268</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.0239747771492019</v>
+      </c>
+      <c r="G195" t="n">
+        <v>216</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0006978936573232</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.286958173749791</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.287650935968346</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-0.0236295689469802</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.0238011189310268</v>
+      </c>
+      <c r="G196" t="n">
+        <v>216</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.0006927622185546</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.286270479945508</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.286958173749791</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.0234600913234224</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.0236295689469802</v>
+      </c>
+      <c r="G197" t="n">
+        <v>216</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.0006876938042835</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.285587792613859</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.286270479945508</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.0232926509708987</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.0234600913234224</v>
+      </c>
+      <c r="G198" t="n">
+        <v>216</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.0006826873316486</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.2849100508722</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.285587792613859</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-0.0231272135632285</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.0232926509708987</v>
+      </c>
+      <c r="G199" t="n">
+        <v>216</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.0006777417416595</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.284237194873645</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.2849100508722</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-0.0229637455172507</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.0231272135632285</v>
+      </c>
+      <c r="G200" t="n">
+        <v>216</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.0006728559985547</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.283569165784464</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.284237194873645</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-0.0228022139732038</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.0229637455172507</v>
+      </c>
+      <c r="G201" t="n">
+        <v>216</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.0006680290891811</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.282905905762072</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.283569165784464</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-0.0226425867757156</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.0228022139732038</v>
+      </c>
+      <c r="G202" t="n">
+        <v>216</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.000663260022392</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.282247357933606</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-0.282905905762072</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-0.0224848324553826</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.0226425867757156</v>
+      </c>
+      <c r="G203" t="n">
+        <v>216</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.0006585478284653</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.281593466375068</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.282247357933606</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.0223289202109167</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.0224848324553826</v>
+      </c>
+      <c r="G204" t="n">
+        <v>216</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.0006538915585382</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.280944176091007</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-0.281593466375068</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-0.0221748198918404</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.0223289202109167</v>
+      </c>
+      <c r="G205" t="n">
+        <v>216</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.0006492902840609</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.280299432994741</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.280944176091007</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-0.0220225019817097</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.0221748198918404</v>
+      </c>
+      <c r="G206" t="n">
+        <v>216</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.0006447430962661</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.279659183889085</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-0.280299432994741</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-0.0218719375818471</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.0220225019817097</v>
+      </c>
+      <c r="G207" t="n">
+        <v>216</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.0006402491056558</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.279023376447582</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.279659183889085</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-0.0217230983955671</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.0218719375818471</v>
+      </c>
+      <c r="G208" t="n">
+        <v>216</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.0006358074415028</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.278391959196214</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.279023376447582</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-0.0215759567128756</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-0.0217230983955671</v>
+      </c>
+      <c r="G209" t="n">
+        <v>216</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.0006314172513683</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.277764881495581</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.278391959196214</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-0.0214304853956289</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-0.0215759567128756</v>
+      </c>
+      <c r="G210" t="n">
+        <v>216</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.0006270777006331</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.277142093523537</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.277764881495581</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.0212866578631344</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-0.0214304853956289</v>
+      </c>
+      <c r="G211" t="n">
+        <v>216</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.0006227879720441</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.276523546258263</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-0.277142093523537</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-0.0211444480781795</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-0.0212866578631344</v>
+      </c>
+      <c r="G212" t="n">
+        <v>216</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.0006185472652736</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.275909191461771</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.276523546258263</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.0210038305334726</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-0.0211444480781795</v>
+      </c>
+      <c r="G213" t="n">
+        <v>216</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.0006143547964918</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.275298981663819</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-0.275909191461771</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-0.0208647802384839</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-0.0210038305334726</v>
+      </c>
+      <c r="G214" t="n">
+        <v>216</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.0006102097979525</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.274692870146228</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.275298981663819</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.0207272727066706</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-0.0208647802384839</v>
+      </c>
+      <c r="G215" t="n">
+        <v>216</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.0006061115175906</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.274090810927596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-0.274692870146228</v>
+      </c>
+      <c r="D216" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.0205912839430749</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-0.0207272727066706</v>
+      </c>
+      <c r="G216" t="n">
+        <v>216</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.0006020592186319</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.273492758748382</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.274090810927596</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-0.0204567904322816</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-0.0205912839430749</v>
+      </c>
+      <c r="G217" t="n">
+        <v>216</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.0005980521792139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.272898669056364</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-0.273492758748382</v>
+      </c>
+      <c r="D218" t="n">
+        <v>6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-0.0203237691267242</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-0.0204567904322816</v>
+      </c>
+      <c r="G218" t="n">
+        <v>216</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.0005940896920176</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.272308497992453</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.272898669056364</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-0.0201921974353263</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-0.0203237691267242</v>
+      </c>
+      <c r="G219" t="n">
+        <v>216</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.000590171063911</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.271722202376852</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-0.272308497992453</v>
+      </c>
+      <c r="D220" t="n">
+        <v>6</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-0.0200620532124688</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.0201921974353263</v>
+      </c>
+      <c r="G220" t="n">
+        <v>216</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.0005862956156014</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.271139739695553</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.271722202376852</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-0.0199333147472714</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-0.0200620532124688</v>
+      </c>
+      <c r="G221" t="n">
+        <v>216</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.000582462681299</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.270561068087163</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-0.271139739695553</v>
+      </c>
+      <c r="D222" t="n">
+        <v>6</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-0.0198059607531781</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.0199333147472714</v>
+      </c>
+      <c r="G222" t="n">
+        <v>216</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.0005786716083896</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.269986146330046</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.270561068087163</v>
+      </c>
+      <c r="D223" t="n">
+        <v>6</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-0.0196799703578371</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.0198059607531781</v>
+      </c>
+      <c r="G223" t="n">
+        <v>216</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.0005749217571165</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.269414933829774</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.269986146330046</v>
+      </c>
+      <c r="D224" t="n">
+        <v>6</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-0.0195553230932652</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-0.0196799703578371</v>
+      </c>
+      <c r="G224" t="n">
+        <v>216</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.0005712125002718999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.268847390606878</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.269414933829774</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-0.0194319988862875</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-0.0195553230932652</v>
+      </c>
+      <c r="G225" t="n">
+        <v>216</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.0005675432228967</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.268283477284889</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.268847390606878</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-0.019309978049244</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-0.0194319988862875</v>
+      </c>
+      <c r="G226" t="n">
+        <v>216</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.0005639133219885</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.26772315507867</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.268283477284889</v>
+      </c>
+      <c r="D227" t="n">
+        <v>6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-0.0191892412709538</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-0.019309978049244</v>
+      </c>
+      <c r="G227" t="n">
+        <v>216</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.000560322206219</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.267166385783013</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-0.26772315507867</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-0.0190697696079291</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.0191892412709538</v>
+      </c>
+      <c r="G228" t="n">
+        <v>216</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.0005567692956574</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.266613131761509</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-0.267166385783013</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-0.0189515444758315</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-0.0190697696079291</v>
+      </c>
+      <c r="G229" t="n">
+        <v>216</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.0005532540215033</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.266063355935684</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.266613131761509</v>
+      </c>
+      <c r="D230" t="n">
+        <v>6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-0.0188345476411617</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.0189515444758315</v>
+      </c>
+      <c r="G230" t="n">
+        <v>216</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.0005497758258258</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.265517021774373</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.266063355935684</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-0.0187187612131764</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-0.0188345476411617</v>
+      </c>
+      <c r="G231" t="n">
+        <v>216</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.0005463341613107</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.264974093283359</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.265517021774373</v>
+      </c>
+      <c r="D232" t="n">
+        <v>6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-0.0186041676360249</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.0187187612131764</v>
+      </c>
+      <c r="G232" t="n">
+        <v>216</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.0005429284910134</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.264434534995239</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.264974093283359</v>
+      </c>
+      <c r="D233" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-0.0184907496810981</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-0.0186041676360249</v>
+      </c>
+      <c r="G233" t="n">
+        <v>216</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.0005395582881201</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.263898311959525</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.264434534995239</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-0.018378490439584</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-0.0184907496810981</v>
+      </c>
+      <c r="G234" t="n">
+        <v>216</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.0005362230357143</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.263365389732975</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.263898311959525</v>
+      </c>
+      <c r="D235" t="n">
+        <v>6</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-0.0182673733152228</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.018378490439584</v>
+      </c>
+      <c r="G235" t="n">
+        <v>216</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.0005329222265501</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.262835734370143</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.263365389732975</v>
+      </c>
+      <c r="D236" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-0.0181573820172554</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.0182673733152228</v>
+      </c>
+      <c r="G236" t="n">
+        <v>216</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.0005296553628317</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.262309312414144</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.262835734370143</v>
+      </c>
+      <c r="D237" t="n">
+        <v>6</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-0.01804850055356</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.0181573820172554</v>
+      </c>
+      <c r="G237" t="n">
+        <v>216</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.0005264219559987</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.261786090887627</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.262309312414144</v>
+      </c>
+      <c r="D238" t="n">
+        <v>6</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-0.0179407132239702</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-0.01804850055356</v>
+      </c>
+      <c r="G238" t="n">
+        <v>216</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.0005232215265169</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.261266037283952</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-0.261786090887627</v>
+      </c>
+      <c r="D239" t="n">
+        <v>6</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-0.0178340046137692</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-0.0179407132239702</v>
+      </c>
+      <c r="G239" t="n">
+        <v>216</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.0005200536036754</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.260749119558564</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-0.261266037283952</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-0.0177283595873558</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.0178340046137692</v>
+      </c>
+      <c r="G240" t="n">
+        <v>216</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.0005169177253882</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.260235306120562</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.260749119558564</v>
+      </c>
+      <c r="D241" t="n">
+        <v>6</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-0.0176237632820755</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-0.0177283595873558</v>
+      </c>
+      <c r="G241" t="n">
+        <v>216</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.0005138134380017</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.259724565824455</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-0.260235306120562</v>
+      </c>
+      <c r="D242" t="n">
+        <v>6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-0.0175202011022123</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-0.0176237632820755</v>
+      </c>
+      <c r="G242" t="n">
+        <v>216</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.0005107402961068</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.259216867962098</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.259724565824455</v>
+      </c>
+      <c r="D243" t="n">
+        <v>6</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-0.0174176587131372</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-0.0175202011022123</v>
+      </c>
+      <c r="G243" t="n">
+        <v>216</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.0005076978623567</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.25871218225481</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.259216867962098</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-0.0173161220356075</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.0174176587131372</v>
+      </c>
+      <c r="G244" t="n">
+        <v>216</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.0005046857072882</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.258210478845661</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.25871218225481</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.0172155772402128</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.0173161220356075</v>
+      </c>
+      <c r="G245" t="n">
+        <v>216</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.0005017034091491</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.257711728291932</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-0.258210478845661</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-0.0171160107419641</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-0.0172155772402128</v>
+      </c>
+      <c r="G246" t="n">
+        <v>216</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.0004987505537286</v>
       </c>
     </row>
   </sheetData>
